--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,43 +528,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H2">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I2">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J2">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.58292792134957</v>
+        <v>1.900950666666667</v>
       </c>
       <c r="N2">
-        <v>1.58292792134957</v>
+        <v>5.702852</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.032507477490336</v>
+        <v>0.3131062179568889</v>
       </c>
       <c r="R2">
-        <v>1.032507477490336</v>
+        <v>2.817955961612</v>
       </c>
       <c r="S2">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="T2">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,43 +590,43 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H3">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I3">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J3">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.58292792134957</v>
+        <v>1.900950666666667</v>
       </c>
       <c r="N3">
-        <v>1.58292792134957</v>
+        <v>5.702852</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4174332730468565</v>
+        <v>1.289440816859111</v>
       </c>
       <c r="R3">
-        <v>0.4174332730468565</v>
+        <v>11.604967351732</v>
       </c>
       <c r="S3">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="T3">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +652,247 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.3320596666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.996179</v>
+      </c>
+      <c r="I4">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="J4">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.900950666666667</v>
+      </c>
+      <c r="N4">
+        <v>5.702852</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.6312290447231111</v>
+      </c>
+      <c r="R4">
+        <v>5.681061402508</v>
+      </c>
+      <c r="S4">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="T4">
+        <v>0.1083249159191941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.272073</v>
+      </c>
+      <c r="H5">
+        <v>0.816219</v>
+      </c>
+      <c r="I5">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J5">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.900950666666667</v>
+      </c>
+      <c r="N5">
+        <v>5.702852</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.517197350732</v>
+      </c>
+      <c r="R5">
+        <v>4.654776156588</v>
+      </c>
+      <c r="S5">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="T5">
+        <v>0.08875599118898181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.19042966377159</v>
-      </c>
-      <c r="H4">
-        <v>1.19042966377159</v>
-      </c>
-      <c r="I4">
-        <v>0.5651445487343731</v>
-      </c>
-      <c r="J4">
-        <v>0.5651445487343731</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.58292792134957</v>
-      </c>
-      <c r="N4">
-        <v>1.58292792134957</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1.884364353186831</v>
-      </c>
-      <c r="R4">
-        <v>1.884364353186831</v>
-      </c>
-      <c r="S4">
-        <v>0.5651445487343731</v>
-      </c>
-      <c r="T4">
-        <v>0.5651445487343731</v>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.767429</v>
+      </c>
+      <c r="I6">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J6">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.900950666666667</v>
+      </c>
+      <c r="N6">
+        <v>5.702852</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.4862815563897778</v>
+      </c>
+      <c r="R6">
+        <v>4.376534007508</v>
+      </c>
+      <c r="S6">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="T6">
+        <v>0.08345054643688658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.362438</v>
+      </c>
+      <c r="H7">
+        <v>4.087314</v>
+      </c>
+      <c r="I7">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J7">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.900950666666667</v>
+      </c>
+      <c r="N7">
+        <v>5.702852</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2.589927424392</v>
+      </c>
+      <c r="R7">
+        <v>23.309346819528</v>
+      </c>
+      <c r="S7">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="T7">
+        <v>0.4444562125735887</v>
       </c>
     </row>
   </sheetData>
